--- a/UPDokument/inceptionfase/Risikoanalyse.xlsx
+++ b/UPDokument/inceptionfase/Risikoanalyse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16335" windowHeight="8175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23535" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -135,6 +135,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="A1:C9" totalsRowShown="0">
+  <autoFilter ref="A1:C9"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Risiko"/>
+    <tableColumn id="2" name="Sandsynlighed"/>
+    <tableColumn id="3" name="Konsekvens"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,17 +449,17 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -458,7 +470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -469,7 +481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -480,7 +492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -491,7 +503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -502,7 +514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -513,7 +525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -524,7 +536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -535,7 +547,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -548,5 +560,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/UPDokument/inceptionfase/Risikoanalyse.xlsx
+++ b/UPDokument/inceptionfase/Risikoanalyse.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juyoung Choi\iCloudDrive\eclipse\flextur\UPDokument\inceptionfase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23535" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23532" windowHeight="6072"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Sygdom</t>
   </si>
@@ -83,15 +87,25 @@
   </si>
   <si>
     <t>Arbejdskvalitet stærkt nedsat</t>
+  </si>
+  <si>
+    <t>Risikoanalyse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -118,8 +132,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,8 +155,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="A1:C9" totalsRowShown="0">
-  <autoFilter ref="A1:C9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabel2" displayName="Tabel2" ref="A4:C12" totalsRowShown="0">
+  <autoFilter ref="A4:C12"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Risiko"/>
     <tableColumn id="2" name="Sandsynlighed"/>
@@ -446,122 +463,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>